--- a/config/forms/contact/health_unit-create.xlsx
+++ b/config/forms/contact/health_unit-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF5E152-7F0B-4B01-8BB1-42EA002909DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA67557-6024-4CA0-A15B-810515F08233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,11 +611,11 @@
   <dimension ref="A1:N969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3090,7 +3090,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-22 18-23</v>
+        <v>2024-01-10 10-07</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>

--- a/config/forms/contact/health_unit-create.xlsx
+++ b/config/forms/contact/health_unit-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA67557-6024-4CA0-A15B-810515F08233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E5BC5-ADD0-4AD0-BE03-E19ECAC24C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>type</t>
   </si>
@@ -226,12 +226,6 @@
     <t>coalesce(${select_person},"NEW")</t>
   </si>
   <si>
-    <t>geolocation</t>
-  </si>
-  <si>
-    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
-  </si>
-  <si>
     <t>New Person</t>
   </si>
   <si>
@@ -256,13 +250,7 @@
     <t>health_unit</t>
   </si>
   <si>
-    <t>concat(../../health_unit/name, "'s Primary Contact")</t>
-  </si>
-  <si>
-    <t>external_id</t>
-  </si>
-  <si>
-    <t>External ID</t>
+    <t>concat(../../health_unit/name, " - Primary Contact")</t>
   </si>
 </sst>
 </file>
@@ -608,14 +596,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N969"/>
+  <dimension ref="A1:N967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -819,10 +807,10 @@
         <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -878,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
@@ -892,18 +880,18 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1"/>
@@ -967,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>16</v>
@@ -1001,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1">
@@ -1018,52 +1006,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="33" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="8" t="s">
+    <row r="35" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>62</v>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A34" s="8" t="s">
+    <row r="36" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>27</v>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
@@ -1071,44 +1059,24 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" t="s">
-        <v>35</v>
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" t="s">
-        <v>37</v>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:10" ht="15.75" customHeight="1"/>
@@ -2035,8 +2003,6 @@
     <row r="965" ht="15.75" customHeight="1"/>
     <row r="966" ht="15.75" customHeight="1"/>
     <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2102,7 +2068,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1"/>
@@ -3132,7 +3098,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-10 10-07</v>
+        <v>2024-01-20 10-58</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
